--- a/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-3,66</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,6</t>
+          <t>-3,59; 25,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,27</t>
+          <t>-7,54; 12,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 9,82</t>
+          <t>-15,09; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,97</t>
+          <t>-20,75; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 4,93</t>
+          <t>-2,2; 34,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 13,03</t>
+          <t>-19,64; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,84</t>
+          <t>-4,25; 12,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,88</t>
+          <t>-0,85; 20,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,46</t>
+          <t>-12,77; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>237,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>344,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>67,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>208,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 186,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 183,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 232,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 84,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 101,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 285,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 106,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 106,81</t>
+          <t>-63,44; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 141,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>1,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,42</t>
+          <t>-1,25; 7,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 1,71</t>
+          <t>-1,24; 7,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,82</t>
+          <t>-3,59; 9,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,66</t>
+          <t>-3,81; 3,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 5,26</t>
+          <t>-3,73; 4,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 9,7</t>
+          <t>-4,58; 13,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,44</t>
+          <t>-1,34; 4,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,19</t>
+          <t>-1,15; 4,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 1,37</t>
+          <t>-2,26; 7,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,18%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-66,42%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,92%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,9%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-47,6%</t>
+          <t>24,73%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 46,49</t>
+          <t>-19,96; 186,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 21,04</t>
+          <t>-18,61; 183,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 25,73</t>
+          <t>-59,02; 232,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 70,74</t>
+          <t>-45,67; 84,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 63,35</t>
+          <t>-41,13; 101,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,97; 115,75</t>
+          <t>-59,96; 285,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 44,28</t>
+          <t>-17,48; 106,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 23,23</t>
+          <t>-16,37; 106,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,4; 18,31</t>
+          <t>-35,97; 141,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-7,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 25,57</t>
+          <t>-6,29; 4,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 12,83</t>
+          <t>-7,83; 3,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 0,0</t>
+          <t>-13,5; -3,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 0,0</t>
+          <t>-7,96; 3,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 34,68</t>
+          <t>-8,04; 4,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 0,0</t>
+          <t>-11,81; 6,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 12,31</t>
+          <t>-5,33; 2,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 20,27</t>
+          <t>-5,51; 2,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,0</t>
+          <t>-11,08; -2,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>237,94%</t>
+          <t>-8,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>-17,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-86,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>344,83%</t>
+          <t>-14,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-54,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>208,13%</t>
+          <t>-16,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-71,36%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,3; 73,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,68; 58,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -22,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,35; 49,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,51; 55,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 96,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,13; 36,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,44; —</t>
+          <t>-44,65; 30,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,74; -12,62</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-5,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 4,89</t>
+          <t>-6,23; 4,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 3,74</t>
+          <t>-8,77; 1,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -3,88</t>
+          <t>-13,06; 1,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 3,51</t>
+          <t>-4,31; 6,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,04</t>
+          <t>-6,14; 5,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 6,63</t>
+          <t>-10,79; 9,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 2,73</t>
+          <t>-3,54; 4,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,17</t>
+          <t>-5,23; 2,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -2,17</t>
+          <t>-10,58; 1,37</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-8,95%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>-29,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-86,89%</t>
+          <t>-66,42%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-18,97%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-54,31%</t>
+          <t>-27,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-16,06%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-71,36%</t>
+          <t>-47,6%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 73,66</t>
+          <t>-40,03; 46,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 58,8</t>
+          <t>-57,75; 21,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,71</t>
+          <t>-100,0; 25,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 49,67</t>
+          <t>-31,44; 70,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,51; 55,12</t>
+          <t>-43,18; 63,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 96,12</t>
+          <t>-80,97; 115,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 36,15</t>
+          <t>-24,66; 44,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 30,37</t>
+          <t>-39,5; 23,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-93,74; -12,62</t>
+          <t>-81,4; 18,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 25,57</t>
+          <t>-4,13; 24,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 12,83</t>
+          <t>-7,78; 12,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 0,0</t>
+          <t>-17,04; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 0,0</t>
+          <t>-21,73; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 34,68</t>
+          <t>-1,63; 35,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 0,0</t>
+          <t>-17,27; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 12,31</t>
+          <t>-5,34; 12,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 20,27</t>
+          <t>-0,92; 18,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,0</t>
+          <t>-13,2; 0,0</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,44; —</t>
+          <t>-58,39; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 10,65</t>
+          <t>-0,38; 10,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 10,54</t>
+          <t>-0,27; 11,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,42</t>
+          <t>-9,09; -2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 14,94</t>
+          <t>2,61; 15,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 10,05</t>
+          <t>-0,59; 10,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 33,9</t>
+          <t>-3,45; 34,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 11,14</t>
+          <t>2,25; 10,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,02</t>
+          <t>0,63; 8,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 13,16</t>
+          <t>-4,42; 11,39</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 417,66</t>
+          <t>-19,39; 401,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 413,52</t>
+          <t>-10,32; 456,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,52; 756,73</t>
+          <t>15,5; 750,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 536,01</t>
+          <t>-24,23; 534,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2079,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,88; 391,1</t>
+          <t>24,56; 354,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 314,35</t>
+          <t>7,77; 294,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 549,37</t>
+          <t>-100,0; 465,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,6</t>
+          <t>-0,87; 7,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,27</t>
+          <t>-0,8; 7,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 9,82</t>
+          <t>-3,42; 9,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,97</t>
+          <t>-4,0; 3,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 4,93</t>
+          <t>-3,76; 4,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 13,03</t>
+          <t>-5,43; 10,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,84</t>
+          <t>-1,32; 4,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,88</t>
+          <t>-1,08; 4,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,46</t>
+          <t>-2,63; 7,35</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 186,84</t>
+          <t>-17,14; 213,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 183,73</t>
+          <t>-12,97; 187,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 232,58</t>
+          <t>-47,8; 248,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 84,94</t>
+          <t>-43,91; 91,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 101,94</t>
+          <t>-42,04; 108,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 285,48</t>
+          <t>-70,88; 218,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 106,35</t>
+          <t>-19,04; 97,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 106,81</t>
+          <t>-13,07; 98,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 141,09</t>
+          <t>-37,44; 146,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 4,89</t>
+          <t>-6,24; 4,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 3,74</t>
+          <t>-7,76; 3,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -3,88</t>
+          <t>-13,59; -3,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 3,51</t>
+          <t>-7,75; 3,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,04</t>
+          <t>-7,47; 4,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 6,63</t>
+          <t>-12,01; 5,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 2,73</t>
+          <t>-5,56; 2,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,17</t>
+          <t>-5,48; 2,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -2,17</t>
+          <t>-10,86; -1,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 73,66</t>
+          <t>-51,82; 67,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 58,8</t>
+          <t>-62,16; 50,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,71</t>
+          <t>-100,0; -19,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 49,67</t>
+          <t>-55,9; 49,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,51; 55,12</t>
+          <t>-53,99; 54,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 96,12</t>
+          <t>-100,0; 86,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 36,15</t>
+          <t>-44,94; 32,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 30,37</t>
+          <t>-45,02; 30,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-93,74; -12,62</t>
+          <t>-93,23; 1,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,42</t>
+          <t>-5,84; 4,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 1,71</t>
+          <t>-8,49; 2,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,82</t>
+          <t>-13,97; 1,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,66</t>
+          <t>-3,71; 6,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 5,26</t>
+          <t>-5,58; 5,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 9,7</t>
+          <t>-10,7; 9,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,44</t>
+          <t>-3,48; 4,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,19</t>
+          <t>-6,04; 1,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 1,37</t>
+          <t>-10,4; 1,95</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 46,49</t>
+          <t>-38,63; 49,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 21,04</t>
+          <t>-55,26; 21,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 25,73</t>
+          <t>-100,0; 17,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 70,74</t>
+          <t>-28,02; 81,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 63,35</t>
+          <t>-40,96; 66,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,97; 115,75</t>
+          <t>-80,28; 109,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 44,28</t>
+          <t>-25,39; 42,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 23,23</t>
+          <t>-43,81; 14,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-81,4; 18,31</t>
+          <t>-79,51; 27,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,23</t>
+          <t>-0,94; 4,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,14</t>
+          <t>-1,99; 3,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,02; -0,63</t>
+          <t>-6,96; -0,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,01</t>
+          <t>-1,5; 3,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,36</t>
+          <t>-1,75; 3,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 4,69</t>
+          <t>-5,36; 3,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,17</t>
+          <t>-0,44; 3,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,46</t>
+          <t>-1,42; 2,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,16</t>
+          <t>-5,44; 0,08</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 60,79</t>
+          <t>-9,7; 59,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 44,36</t>
+          <t>-20,58; 42,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,95; -1,02</t>
+          <t>-76,81; -9,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 56,93</t>
+          <t>-15,78; 54,13</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 47,06</t>
+          <t>-17,47; 49,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 61,95</t>
+          <t>-57,81; 44,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 41,77</t>
+          <t>-4,94; 44,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 31,83</t>
+          <t>-14,83; 30,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 2,22</t>
+          <t>-59,82; 1,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 24,88</t>
+          <t>-4,23; 23,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 12,36</t>
+          <t>-7,6; 12,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 0,0</t>
+          <t>-18,37; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 0,0</t>
+          <t>-20,07; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 35,57</t>
+          <t>-2,71; 33,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 0,0</t>
+          <t>-24,16; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 12,17</t>
+          <t>-4,79; 13,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 18,29</t>
+          <t>-1,34; 18,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 0,0</t>
+          <t>-11,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,39; —</t>
+          <t>-62,93; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 10,43</t>
+          <t>-0,05; 10,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,11</t>
+          <t>-0,2; 10,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -2,36</t>
+          <t>-9,01; -2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 15,47</t>
+          <t>2,72; 14,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 10,42</t>
+          <t>-0,82; 10,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 34,76</t>
+          <t>-3,3; 30,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,98</t>
+          <t>2,75; 10,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 8,89</t>
+          <t>1,02; 9,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 11,39</t>
+          <t>-4,43; 12,72</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 401,98</t>
+          <t>-9,96; 454,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 456,92</t>
+          <t>-14,73; 388,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 750,1</t>
+          <t>24,22; 766,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 534,12</t>
+          <t>-24,23; 530,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 2106,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,56; 354,48</t>
+          <t>36,33; 370,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 294,23</t>
+          <t>8,7; 299,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 465,23</t>
+          <t>-100,0; 417,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,67</t>
+          <t>-1,16; 7,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 7,27</t>
+          <t>-1,26; 7,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 9,66</t>
+          <t>-2,72; 10,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,83</t>
+          <t>-3,69; 4,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,98</t>
+          <t>-3,61; 4,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 10,49</t>
+          <t>-4,69; 11,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,89</t>
+          <t>-1,57; 4,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,65</t>
+          <t>-0,88; 5,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,35</t>
+          <t>-2,5; 7,42</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 213,83</t>
+          <t>-20,63; 188,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 187,37</t>
+          <t>-19,95; 180,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 248,51</t>
+          <t>-44,6; 275,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 91,28</t>
+          <t>-42,96; 108,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 108,75</t>
+          <t>-41,42; 99,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 218,72</t>
+          <t>-65,09; 231,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 97,91</t>
+          <t>-21,34; 95,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 98,34</t>
+          <t>-12,55; 106,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 146,94</t>
+          <t>-36,62; 156,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 4,53</t>
+          <t>-5,88; 5,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,42</t>
+          <t>-7,19; 4,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -3,42</t>
+          <t>-13,69; -3,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 3,42</t>
+          <t>-8,26; 3,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 4,15</t>
+          <t>-7,15; 4,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 5,74</t>
+          <t>-12,17; 5,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 2,51</t>
+          <t>-5,4; 3,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,49</t>
+          <t>-5,51; 2,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -1,27</t>
+          <t>-11,14; -1,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 67,5</t>
+          <t>-47,17; 76,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,16; 50,33</t>
+          <t>-58,09; 75,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -19,75</t>
+          <t>-100,0; -20,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 49,6</t>
+          <t>-57,99; 41,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 54,17</t>
+          <t>-54,72; 58,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 86,29</t>
+          <t>-100,0; 90,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 32,5</t>
+          <t>-43,07; 35,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 30,27</t>
+          <t>-46,44; 28,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-93,23; 1,91</t>
+          <t>-93,71; -11,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 4,75</t>
+          <t>-5,8; 4,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 2,05</t>
+          <t>-9,19; 1,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 1,09</t>
+          <t>-13,78; 1,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 6,73</t>
+          <t>-4,36; 6,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 5,57</t>
+          <t>-6,09; 5,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 9,73</t>
+          <t>-10,78; 11,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,21</t>
+          <t>-3,25; 4,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,56</t>
+          <t>-6,14; 1,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 1,95</t>
+          <t>-10,42; 1,95</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 49,13</t>
+          <t>-39,05; 53,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,26; 21,4</t>
+          <t>-58,97; 17,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 17,49</t>
+          <t>-100,0; 33,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 81,97</t>
+          <t>-31,66; 76,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 66,02</t>
+          <t>-43,64; 59,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,28; 109,46</t>
+          <t>-80,7; 126,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 42,3</t>
+          <t>-23,62; 44,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 14,85</t>
+          <t>-43,62; 18,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,51; 27,26</t>
+          <t>-81,03; 22,38</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,21</t>
+          <t>-1,03; 3,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,08</t>
+          <t>-2,28; 2,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -0,71</t>
+          <t>-7,11; -0,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,88</t>
+          <t>-1,53; 3,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,47</t>
+          <t>-1,89; 3,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,52</t>
+          <t>-4,96; 4,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,41</t>
+          <t>-0,31; 3,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,35</t>
+          <t>-1,34; 2,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,08</t>
+          <t>-5,43; -0,06</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 59,12</t>
+          <t>-10,66; 56,71</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 42,73</t>
+          <t>-23,9; 37,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-76,81; -9,06</t>
+          <t>-75,92; -3,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 54,13</t>
+          <t>-15,08; 52,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 49,06</t>
+          <t>-18,94; 47,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,81; 44,71</t>
+          <t>-54,74; 52,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 44,47</t>
+          <t>-3,56; 43,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 30,75</t>
+          <t>-14,2; 30,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 1,4</t>
+          <t>-60,48; 0,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-1,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 23,94</t>
+          <t>1,87; 12,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 12,39</t>
+          <t>1,32; 12,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 0,0</t>
+          <t>-3,74; 22,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 0,0</t>
+          <t>0,57; 10,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 33,75</t>
+          <t>-0,64; 9,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 0,0</t>
+          <t>-8,07; -2,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 13,53</t>
+          <t>2,19; 9,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 18,49</t>
+          <t>1,51; 8,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 0,0</t>
+          <t>-4,61; 7,67</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>237,94%</t>
+          <t>162,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>150,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>120,34%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100,27%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>344,83%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>138,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>208,13%</t>
+          <t>122,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-23,23%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>18,51; 587,78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 588,61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 1138,49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 382,76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-17,9; 341,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,7; 319,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,93; —</t>
+          <t>22,45; 304,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 259,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 10,79</t>
+          <t>-3,81; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 10,89</t>
+          <t>-3,73; 4,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -2,36</t>
+          <t>-4,61; 13,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 14,92</t>
+          <t>-1,25; 7,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 10,05</t>
+          <t>-1,24; 7,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 30,82</t>
+          <t>-3,57; 9,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,9</t>
+          <t>-1,34; 4,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,12</t>
+          <t>-1,15; 4,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 12,72</t>
+          <t>-2,33; 7,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>103,38%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>104,75%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>213,62%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>111,18%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>168,07%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>150,17%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>107,23%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>23,85%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 454,45</t>
+          <t>-45,67; 84,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 388,06</t>
+          <t>-41,13; 101,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,95; 287,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,22; 766,56</t>
+          <t>-19,96; 186,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 530,95</t>
+          <t>-18,61; 183,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2106,44</t>
+          <t>-58,4; 231,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,33; 370,26</t>
+          <t>-17,48; 106,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 299,5</t>
+          <t>-16,37; 106,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 417,09</t>
+          <t>-36,79; 138,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-7,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,48</t>
+          <t>-7,96; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,11</t>
+          <t>-8,04; 4,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,41</t>
+          <t>-11,92; 5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,79</t>
+          <t>-6,29; 4,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 4,53</t>
+          <t>-7,83; 3,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 11,0</t>
+          <t>-13,61; -4,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,79</t>
+          <t>-5,33; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,29</t>
+          <t>-5,51; 2,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 7,42</t>
+          <t>-11,15; -2,55</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>-14,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>-56,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-8,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>-17,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>-87,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>-16,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>-72,72%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 188,48</t>
+          <t>-55,35; 49,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 180,45</t>
+          <t>-55,51; 55,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,6; 275,84</t>
+          <t>-100,0; 86,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 108,32</t>
+          <t>-49,3; 73,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 99,44</t>
+          <t>-58,68; 58,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 231,77</t>
+          <t>-100,0; -25,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 95,65</t>
+          <t>-43,13; 36,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 106,94</t>
+          <t>-44,65; 30,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 156,6</t>
+          <t>-94,0; -15,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-5,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,31</t>
+          <t>-4,31; 6,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,6</t>
+          <t>-6,14; 5,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -3,85</t>
+          <t>-10,82; 9,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 3,07</t>
+          <t>-6,23; 4,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,24</t>
+          <t>-8,77; 1,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 5,42</t>
+          <t>-13,07; 1,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,0</t>
+          <t>-3,54; 4,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,35</t>
+          <t>-5,23; 2,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -1,66</t>
+          <t>-10,58; 1,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,95%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-86,89%</t>
+          <t>-27,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,97%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>-29,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-54,31%</t>
+          <t>-66,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-16,06%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-71,36%</t>
+          <t>-48,19%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,17; 76,89</t>
+          <t>-31,44; 70,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 75,9</t>
+          <t>-43,18; 63,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,26</t>
+          <t>-81,14; 114,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 41,95</t>
+          <t>-40,03; 46,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,72; 58,5</t>
+          <t>-57,75; 21,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 90,35</t>
+          <t>-100,0; 27,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 35,23</t>
+          <t>-24,66; 44,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,44; 28,33</t>
+          <t>-39,5; 23,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-93,71; -11,4</t>
+          <t>-81,54; 14,63</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-3,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,94</t>
+          <t>-1,29; 4,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 1,53</t>
+          <t>-1,65; 3,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 1,34</t>
+          <t>-5,49; 4,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 6,65</t>
+          <t>-1,02; 4,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 5,13</t>
+          <t>-2,2; 3,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 11,16</t>
+          <t>-7,08; -0,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,45</t>
+          <t>-0,33; 3,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,74</t>
+          <t>-1,25; 2,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 1,95</t>
+          <t>-5,24; -0,16</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-29,18%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-66,42%</t>
+          <t>-16,52%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-27,92%</t>
+          <t>-51,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-15,9%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-47,6%</t>
+          <t>-36,23%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 53,82</t>
+          <t>-13,43; 56,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 17,14</t>
+          <t>-16,95; 47,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,43</t>
+          <t>-60,37; 57,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 76,54</t>
+          <t>-10,9; 60,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 59,0</t>
+          <t>-23,1; 44,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,7; 126,76</t>
+          <t>-76,14; -5,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 44,5</t>
+          <t>-3,49; 41,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 18,18</t>
+          <t>-13,75; 31,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-81,03; 22,38</t>
+          <t>-59,14; -1,87</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 3,96</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 2,72</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; -0,37</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 3,82</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 3,6</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 4,09</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 3,29</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 2,32</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; -0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>19,67%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-50,46%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>14,73%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-14,78%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>17,23%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-34,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; 56,71</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-23,9; 37,52</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-75,92; -3,05</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 52,93</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 47,82</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-54,74; 52,62</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-3,56; 43,74</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 30,26</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-60,48; 0,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
